--- a/ТO30_2023_00-2.xlsx
+++ b/ТO30_2023_00-2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" saveExternalLinkValues="0" updateLinks="always" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\PycharmProjects\viam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\OneDrive\Документы\GitHub\viam_pars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38414617-2903-4CB4-8FF8-F22B3DA971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F235A-09F0-483D-9676-B837D27C45D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1680" windowWidth="21600" windowHeight="11835" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
   <si>
     <t>№</t>
   </si>
@@ -1133,6 +1133,12 @@
   </si>
   <si>
     <t>Дб-23</t>
+  </si>
+  <si>
+    <t>44-4545</t>
+  </si>
+  <si>
+    <t>Кто-нибудь</t>
   </si>
 </sst>
 </file>
@@ -2266,31 +2272,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2315,21 +2336,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3030,7 +3036,7 @@
   <dimension ref="A1:XFA381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3147,125 +3153,125 @@
       <c r="AU1" s="33"/>
     </row>
     <row r="2" spans="1:48" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="185" t="s">
+      <c r="E2" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="183" t="s">
+      <c r="F2" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="167" t="s">
+      <c r="K2" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="183" t="s">
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="167" t="s">
+      <c r="P2" s="170"/>
+      <c r="Q2" s="168" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="167" t="s">
+      <c r="R2" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="186" t="s">
+      <c r="S2" s="173" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="186"/>
-      <c r="U2" s="186"/>
-      <c r="V2" s="176" t="s">
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="177"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179" t="s">
+      <c r="W2" s="182"/>
+      <c r="X2" s="183"/>
+      <c r="Y2" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" s="180"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="185" t="s">
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="182" t="s">
+      <c r="AC2" s="169" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="175" t="s">
+      <c r="AD2" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175" t="s">
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="171" t="s">
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="173" t="s">
+      <c r="AI2" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="167" t="s">
+      <c r="AJ2" s="168" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="167" t="s">
+      <c r="AK2" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="174" t="s">
+      <c r="AL2" s="179" t="s">
         <v>111</v>
       </c>
-      <c r="AM2" s="169" t="s">
+      <c r="AM2" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="168" t="s">
+      <c r="AN2" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="AO2" s="167" t="s">
+      <c r="AO2" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167" t="s">
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="167"/>
+      <c r="AR2" s="168"/>
       <c r="AS2" s="17"/>
       <c r="AT2" s="31"/>
       <c r="AU2" s="32"/>
     </row>
     <row r="3" spans="1:48" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="170"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
+      <c r="A3" s="166"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
       <c r="K3" s="19" t="s">
         <v>99</v>
       </c>
@@ -3284,8 +3290,8 @@
       <c r="P3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
       <c r="S3" s="13" t="s">
         <v>103</v>
       </c>
@@ -3313,8 +3319,8 @@
       <c r="AA3" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="182"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="169"/>
       <c r="AD3" s="130" t="s">
         <v>107</v>
       </c>
@@ -3327,13 +3333,13 @@
       <c r="AG3" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="173"/>
-      <c r="AJ3" s="167"/>
-      <c r="AK3" s="167"/>
-      <c r="AL3" s="174"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="168"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="167"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="179"/>
+      <c r="AM3" s="166"/>
+      <c r="AN3" s="176"/>
       <c r="AO3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3518,7 +3524,9 @@
       <c r="J5" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="44"/>
+      <c r="K5" s="44" t="s">
+        <v>205</v>
+      </c>
       <c r="L5" s="44">
         <v>6</v>
       </c>
@@ -3677,103 +3685,191 @@
       <c r="AT6" s="57"/>
       <c r="AU6" s="57"/>
     </row>
-    <row r="7" spans="1:48" s="56" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="107"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
+    <row r="7" spans="1:48" s="58" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="44">
+        <v>633</v>
+      </c>
+      <c r="D7" s="44">
+        <v>16</v>
+      </c>
+      <c r="E7" s="44">
+        <v>550</v>
+      </c>
+      <c r="F7" s="44">
+        <v>16</v>
+      </c>
+      <c r="G7" s="44">
+        <v>550</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="44">
+        <v>16</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>184</v>
+      </c>
       <c r="N7" s="44"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="O7" s="28">
+        <v>44938</v>
+      </c>
+      <c r="P7" s="28">
+        <v>44937</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>44937</v>
+      </c>
       <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
+      <c r="S7" s="28">
+        <v>44985</v>
+      </c>
+      <c r="T7" s="48">
+        <v>44956</v>
+      </c>
       <c r="U7" s="28"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="125"/>
-      <c r="AD7" s="132"/>
+      <c r="V7" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="W7" s="48">
+        <v>45012</v>
+      </c>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="73" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC7" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD7" s="132" t="s">
+        <v>176</v>
+      </c>
       <c r="AE7" s="44"/>
-      <c r="AF7" s="51"/>
+      <c r="AF7" s="51" t="s">
+        <v>176</v>
+      </c>
       <c r="AG7" s="91"/>
-      <c r="AH7" s="104"/>
-      <c r="AI7" s="97"/>
+      <c r="AH7" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI7" s="97" t="s">
+        <v>179</v>
+      </c>
       <c r="AJ7" s="52"/>
       <c r="AK7" s="52"/>
       <c r="AL7" s="113"/>
-      <c r="AM7" s="110"/>
+      <c r="AM7" s="120"/>
       <c r="AN7" s="116"/>
       <c r="AO7" s="54"/>
       <c r="AP7" s="55"/>
       <c r="AQ7" s="54"/>
       <c r="AR7" s="55"/>
+      <c r="AS7" s="56"/>
       <c r="AT7" s="57"/>
       <c r="AU7" s="57"/>
-      <c r="AV7" s="58"/>
-    </row>
-    <row r="8" spans="1:48" s="56" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="107"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+    </row>
+    <row r="8" spans="1:48" s="58" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="44">
+        <v>569</v>
+      </c>
+      <c r="D8" s="44">
+        <v>6</v>
+      </c>
       <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="44">
+        <v>6</v>
+      </c>
       <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="44"/>
+      <c r="H8" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="44">
+        <v>20</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>177</v>
+      </c>
       <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="L8" s="44">
+        <v>6</v>
+      </c>
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="P8" s="28">
+        <v>44936</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>44936</v>
+      </c>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="74"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
+      <c r="T8" s="28">
+        <v>44945</v>
+      </c>
+      <c r="U8" s="28"/>
+      <c r="V8" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="W8" s="28">
+        <v>44959</v>
+      </c>
       <c r="X8" s="47"/>
       <c r="Y8" s="47"/>
       <c r="Z8" s="47"/>
       <c r="AA8" s="47"/>
       <c r="AB8" s="47"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="133"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="132" t="s">
+        <v>176</v>
+      </c>
       <c r="AE8" s="44"/>
-      <c r="AF8" s="51"/>
+      <c r="AF8" s="51" t="s">
+        <v>176</v>
+      </c>
       <c r="AG8" s="91"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="97"/>
+      <c r="AH8" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI8" s="97" t="s">
+        <v>178</v>
+      </c>
       <c r="AJ8" s="52"/>
       <c r="AK8" s="52"/>
       <c r="AL8" s="113"/>
-      <c r="AM8" s="110"/>
+      <c r="AM8" s="120"/>
       <c r="AN8" s="116"/>
       <c r="AO8" s="54"/>
       <c r="AP8" s="55"/>
       <c r="AQ8" s="54"/>
       <c r="AR8" s="55"/>
+      <c r="AS8" s="56"/>
       <c r="AT8" s="57"/>
       <c r="AU8" s="57"/>
-      <c r="AV8" s="58"/>
     </row>
     <row r="9" spans="1:48" s="56" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="107"/>
@@ -38360,6 +38456,20 @@
   <autoFilter ref="A4:AR380" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <mergeCells count="30">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -38376,20 +38486,6 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K9">
     <cfRule type="expression" dxfId="36" priority="31">
@@ -38520,7 +38616,7 @@
           <x14:formula1>
             <xm:f>'список оборудования'!$A$2:$A$43</xm:f>
           </x14:formula1>
-          <xm:sqref>AO380 AQ7:AQ380 AO7:AO378</xm:sqref>
+          <xm:sqref>AO380 AQ9:AQ380 AO9:AO378</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/ТO30_2023_00-2.xlsx
+++ b/ТO30_2023_00-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diman\OneDrive\Документы\GitHub\viam_pars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F235A-09F0-483D-9676-B837D27C45D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F730558-AF90-450B-87FE-67725D1C0FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="1680" windowWidth="21600" windowHeight="11835" tabRatio="719" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="205">
   <si>
     <t>№</t>
   </si>
@@ -1103,9 +1103,6 @@
   </si>
   <si>
     <t>fact_count_sample</t>
-  </si>
-  <si>
-    <t>kind_test</t>
   </si>
   <si>
     <t>temperature</t>
@@ -2272,46 +2269,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2336,6 +2318,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3036,7 +3033,7 @@
   <dimension ref="A1:XFA381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3104,28 +3101,26 @@
       <c r="F1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="153" t="s">
+      <c r="J1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="M1" s="21"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>199</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
@@ -3153,125 +3148,125 @@
       <c r="AU1" s="33"/>
     </row>
     <row r="2" spans="1:48" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="172" t="s">
+      <c r="E2" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="170" t="s">
+      <c r="F2" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="168" t="s">
+      <c r="H2" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="168" t="s">
+      <c r="I2" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="168" t="s">
+      <c r="J2" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="168" t="s">
+      <c r="K2" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="170" t="s">
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="168" t="s">
+      <c r="P2" s="183"/>
+      <c r="Q2" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="168" t="s">
+      <c r="R2" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="173" t="s">
+      <c r="S2" s="186" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="181" t="s">
+      <c r="T2" s="186"/>
+      <c r="U2" s="186"/>
+      <c r="V2" s="176" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="182"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="184" t="s">
+      <c r="W2" s="177"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="172" t="s">
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="185" t="s">
         <v>165</v>
       </c>
-      <c r="AC2" s="169" t="s">
+      <c r="AC2" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="180" t="s">
+      <c r="AD2" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="180"/>
-      <c r="AF2" s="180" t="s">
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="180"/>
-      <c r="AH2" s="177" t="s">
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="167" t="s">
+      <c r="AI2" s="173" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="168" t="s">
+      <c r="AJ2" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="168" t="s">
+      <c r="AK2" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="AL2" s="179" t="s">
+      <c r="AL2" s="174" t="s">
         <v>111</v>
       </c>
-      <c r="AM2" s="165" t="s">
+      <c r="AM2" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="176" t="s">
+      <c r="AN2" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="AO2" s="168" t="s">
+      <c r="AO2" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168" t="s">
+      <c r="AP2" s="167"/>
+      <c r="AQ2" s="167" t="s">
         <v>113</v>
       </c>
-      <c r="AR2" s="168"/>
+      <c r="AR2" s="167"/>
       <c r="AS2" s="17"/>
       <c r="AT2" s="31"/>
       <c r="AU2" s="32"/>
     </row>
     <row r="3" spans="1:48" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="19" t="s">
         <v>99</v>
       </c>
@@ -3290,8 +3285,8 @@
       <c r="P3" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
       <c r="S3" s="13" t="s">
         <v>103</v>
       </c>
@@ -3319,8 +3314,8 @@
       <c r="AA3" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="169"/>
+      <c r="AB3" s="185"/>
+      <c r="AC3" s="182"/>
       <c r="AD3" s="130" t="s">
         <v>107</v>
       </c>
@@ -3333,13 +3328,13 @@
       <c r="AG3" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="167"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="166"/>
-      <c r="AN3" s="176"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="173"/>
+      <c r="AJ3" s="167"/>
+      <c r="AK3" s="167"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="168"/>
       <c r="AO3" s="19" t="s">
         <v>114</v>
       </c>
@@ -3502,7 +3497,7 @@
         <v>174</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="44">
         <v>569</v>
@@ -3525,7 +3520,7 @@
         <v>177</v>
       </c>
       <c r="K5" s="44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L5" s="44">
         <v>6</v>
@@ -3586,10 +3581,10 @@
     </row>
     <row r="6" spans="1:48" s="58" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="99" t="s">
         <v>201</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>202</v>
       </c>
       <c r="C6" s="44">
         <v>633</v>
@@ -3687,10 +3682,10 @@
     </row>
     <row r="7" spans="1:48" s="58" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="44">
         <v>633</v>
@@ -3791,7 +3786,7 @@
         <v>174</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="44">
         <v>569</v>
@@ -38456,20 +38451,6 @@
   <autoFilter ref="A4:AR380" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -38486,6 +38467,20 @@
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:K9">
     <cfRule type="expression" dxfId="36" priority="31">
